--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -494,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,51 +767,6 @@
       </c>
       <c r="B33">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Errortip" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -125,14 +125,6 @@
   </si>
   <si>
     <t>http://test.dent-lab.com/register.html</t>
-  </si>
-  <si>
-    <t>注册链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://test.dent-lab.com/login.html</t>
@@ -496,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -778,28 +770,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\德雅项目文档\测试脚本\-POM-\DentTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\德雅项目文档\测试脚本\-POM-\DentTest\UseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Errortip" sheetId="1" r:id="rId1"/>
     <sheet name="URL" sheetId="2" r:id="rId2"/>
-    <sheet name="USER" sheetId="3" r:id="rId3"/>
+    <sheet name="TXT" sheetId="3" r:id="rId3"/>
     <sheet name="Phone" sheetId="4" r:id="rId4"/>
     <sheet name="Email" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>http://test.dent-lab.com/login.html</t>
+  </si>
+  <si>
+    <t>德雅医疗-Dent Lab</t>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议 和 隐私政策。</t>
   </si>
 </sst>
 </file>
@@ -179,10 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,6 +782,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -770,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -782,12 +808,15 @@
     <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -799,12 +828,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Errortip" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>用户协议 和 隐私政策。</t>
+  </si>
+  <si>
+    <t>648604875@qq.com</t>
+  </si>
+  <si>
+    <t>944921374@qq.com</t>
   </si>
 </sst>
 </file>
@@ -197,13 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -864,14 +873,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>13217665001</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15812487685</v>
+      </c>
+      <c r="C1" s="1">
+        <v>15816038158</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="3">
+        <v>13217665001</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D2" s="1"/>
+      <c r="E2" s="3">
+        <v>15816038158</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>944921374@qq.com</t>
+  </si>
+  <si>
+    <t>a123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -876,7 +880,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -902,7 +906,7 @@
         <v>13217665001</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -910,18 +914,14 @@
       <c r="E2" s="3">
         <v>15816038158</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E4" s="1" t="s">

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\德雅项目文档\测试脚本\-POM-\DentTest\UseData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\德雅项目文档\测试脚本\-POM-\DentTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Errortip" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -156,6 +156,9 @@
   <si>
     <t>a123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入当前用户名和密码</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -798,6 +801,17 @@
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="B34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/DentTest/dent.xlsx
+++ b/DentTest/dent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Errortip" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>邮箱不能为空</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>请输入当前用户名和密码</t>
+  </si>
+  <si>
+    <t>http://test.dent-lab.com/user/userinfo.html</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -823,19 +826,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -844,6 +849,9 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
